--- a/data/trans_bre/P27D_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Estudios-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +538,44 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,20 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -609,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 11,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -623,6 +656,16 @@
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-54,68; 157,05</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -641,20 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -669,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -683,6 +736,16 @@
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-38,7; 81,18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -701,20 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>85,8%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -729,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 8,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -743,6 +816,16 @@
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 238,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -761,20 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -789,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 4,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -803,6 +896,16 @@
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-40,51; 75,9</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -821,20 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -849,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -863,6 +976,16 @@
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 64,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -877,11 +1000,11 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/trans_bre/P27D_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,115 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.3546589808461759</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="6" t="n">
+        <v>0.03020099258912061</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,07; 11,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-54,68; 157,05</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.258384071184802</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.5619734427138379</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.765887336310296</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.240495451138648</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 4,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-38,7; 81,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.046028646774891</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="6" t="n">
+        <v>0.1429981375721092</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>85,8%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.226834419344883</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.3569850554059089</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 8,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 238,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.679492021229145</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>0.907474273391992</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +727,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,68%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.720417160409504</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="6" t="n">
+        <v>0.8971422673987984</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 4,02</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-40,51; 75,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7353237919473422</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>0.08184414747405314</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.963005703774094</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>2.447103823486215</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>21,68%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 4,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 64,21</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.403260707162459</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="6" t="n">
+        <v>0.3233476736583104</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.5636503360510029</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-0.06686566649125583</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.622931781916712</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>0.9316224190280966</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
